--- a/ChameleonData/StrideTimes/StrideOutputs/Snow_3_5_4_18_GH019823_Event_5.xlsx
+++ b/ChameleonData/StrideTimes/StrideOutputs/Snow_3_5_4_18_GH019823_Event_5.xlsx
@@ -7,10 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB hindlimb" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB ankle" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC hindlimb" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC ankle" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_forelimb" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_forelimb" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_wrist" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_wrist" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_hindlimb" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_hindlimb" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_ankle" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_ankle" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +432,79 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,13 +518,53 @@
           <t>stride_1</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_max_hip_height_height</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_min_hip_height_height</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>63.71992221226766</v>
+        <v>63.48521237161164</v>
+      </c>
+      <c r="C2" t="n">
+        <v>63.48521237161164</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-55.10214668493082</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-7.949034278946018</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04492688474871732</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03963759572609998</v>
       </c>
     </row>
     <row r="3">
@@ -456,2201 +572,1775 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>63.09021835410157</v>
-      </c>
+        <v>63.71992221226766</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>63.50948475246359</v>
-      </c>
+        <v>63.09021835410157</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>63.52584676007577</v>
-      </c>
+        <v>63.50948475246359</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63.92034402481193</v>
-      </c>
+        <v>63.52584676007577</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>65.5028730651651</v>
-      </c>
+        <v>63.92034402481193</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65.13506824408016</v>
-      </c>
+        <v>65.5028730651651</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>67.17160261722313</v>
-      </c>
+        <v>65.13506824408016</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67.31455522626997</v>
-      </c>
+        <v>67.17160261722313</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>67.72525103103176</v>
-      </c>
+        <v>67.31455522626997</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>67.71320276727873</v>
-      </c>
+        <v>67.72525103103176</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>72.09071169699143</v>
-      </c>
+        <v>67.71320276727873</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>72.88459254203491</v>
-      </c>
+        <v>72.09071169699143</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>72.86153053830878</v>
-      </c>
+        <v>72.88459254203491</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>72.78271082028418</v>
-      </c>
+        <v>72.86153053830878</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>73.17618710188511</v>
-      </c>
+        <v>72.78271082028418</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>73.24142644090689</v>
-      </c>
+        <v>73.17618710188511</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>72.50402573273811</v>
-      </c>
+        <v>73.24142644090689</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>73.86672954931166</v>
-      </c>
+        <v>72.50402573273811</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>74.17451939110214</v>
-      </c>
+        <v>73.86672954931166</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>74.67957476920033</v>
-      </c>
+        <v>74.17451939110214</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>78.11528983101404</v>
-      </c>
+        <v>74.67957476920033</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>79.36273328212357</v>
-      </c>
+        <v>78.11528983101404</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>76.82313641416452</v>
-      </c>
+        <v>79.36273328212357</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>77.64535575690869</v>
-      </c>
+        <v>76.82313641416452</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>75.40378849298442</v>
-      </c>
+        <v>77.64535575690869</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>74.89374475429099</v>
-      </c>
+        <v>75.40378849298442</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>57.24967428170226</v>
-      </c>
+        <v>74.89374475429099</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>57.25014223751397</v>
-      </c>
+        <v>57.24967428170226</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>51.54110802705432</v>
-      </c>
+        <v>57.25014223751397</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>55.53334182159875</v>
-      </c>
+        <v>51.54110802705432</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>27.31786092057565</v>
-      </c>
+        <v>55.53334182159875</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>75.0996038380637</v>
-      </c>
+        <v>27.31786092057565</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>55.23003459797545</v>
-      </c>
+        <v>75.0996038380637</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>53.68793343863271</v>
-      </c>
+        <v>55.23003459797545</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>37.77549157022377</v>
-      </c>
+        <v>53.68793343863271</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>38.01436521137595</v>
-      </c>
+        <v>37.77549157022377</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>18.24884422486186</v>
-      </c>
+        <v>38.01436521137595</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>17.36081782670428</v>
-      </c>
+        <v>18.24884422486186</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-9.268394500165996</v>
-      </c>
+        <v>17.36081782670428</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-7.949034278946018</v>
-      </c>
+        <v>-9.268394500165996</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-10.26803106047845</v>
-      </c>
+        <v>-7.949034278946018</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-11.10466687813686</v>
-      </c>
+        <v>-10.26803106047845</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-26.4690935142944</v>
-      </c>
+        <v>-11.10466687813686</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-26.93783378588587</v>
-      </c>
+        <v>-26.4690935142944</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-34.27970035976115</v>
-      </c>
+        <v>-26.93783378588587</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-33.64016788306201</v>
-      </c>
+        <v>-34.27970035976115</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-38.45298803049412</v>
-      </c>
+        <v>-33.64016788306201</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-37.86749624527999</v>
-      </c>
+        <v>-38.45298803049412</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-39.50675398913542</v>
-      </c>
+        <v>-37.86749624527999</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-39.65967798457953</v>
-      </c>
+        <v>-39.50675398913542</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-42.27712683898972</v>
-      </c>
+        <v>-39.65967798457953</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-42.08822143985558</v>
-      </c>
+        <v>-42.27712683898972</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-43.66562416567193</v>
-      </c>
+        <v>-42.08822143985558</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-41.0460405807372</v>
-      </c>
+        <v>-43.66562416567193</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-44.20871306452668</v>
-      </c>
+        <v>-41.0460405807372</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-43.12908534039536</v>
-      </c>
+        <v>-44.20871306452668</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>89.98566122447795</v>
-      </c>
+        <v>-43.12908534039536</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>89.9811068480296</v>
-      </c>
+        <v>89.98566122447795</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>89.85238805780129</v>
-      </c>
+        <v>89.9811068480296</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>89.8442344589718</v>
-      </c>
+        <v>89.85238805780129</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-46.03226602984804</v>
-      </c>
+        <v>89.8442344589718</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-46.43375323471599</v>
-      </c>
+        <v>-46.03226602984804</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-50.55646216661091</v>
-      </c>
+        <v>-46.43375323471599</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-49.26358141050643</v>
-      </c>
+        <v>-50.55646216661091</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-51.23463411704284</v>
-      </c>
+        <v>-49.26358141050643</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-50.03329233810172</v>
-      </c>
+        <v>-51.23463411704284</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>81.36583601856903</v>
-      </c>
+        <v>-50.03329233810172</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>81.31188603170773</v>
-      </c>
+        <v>81.36583601856903</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>81.14350235737082</v>
-      </c>
+        <v>81.31188603170773</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>81.13296709562961</v>
-      </c>
+        <v>81.14350235737082</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>81.15948630757491</v>
-      </c>
+        <v>81.13296709562961</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>81.15323843487715</v>
-      </c>
+        <v>81.15948630757491</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>81.24080678167162</v>
-      </c>
+        <v>81.15323843487715</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>81.23561771696752</v>
-      </c>
+        <v>81.24080678167162</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>81.18568684842303</v>
-      </c>
+        <v>81.23561771696752</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>81.17976802822493</v>
-      </c>
+        <v>81.18568684842303</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>81.28002844890128</v>
-      </c>
+        <v>81.17976802822493</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>81.34921403685168</v>
-      </c>
+        <v>81.28002844890128</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>81.34810612658262</v>
-      </c>
+        <v>81.34921403685168</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>81.44915666994716</v>
-      </c>
+        <v>81.34810612658262</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>81.478142020319</v>
-      </c>
+        <v>81.44915666994716</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>81.33976537866573</v>
-      </c>
+        <v>81.478142020319</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>81.2404227247557</v>
-      </c>
+        <v>81.33976537866573</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>81.38451218668347</v>
-      </c>
+        <v>81.2404227247557</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>88.54712578920466</v>
-      </c>
+        <v>81.38451218668347</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>88.56776429825956</v>
-      </c>
+        <v>88.54712578920466</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>46.16764633364718</v>
-      </c>
+        <v>88.56776429825956</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>46.39082375956531</v>
-      </c>
+        <v>46.16764633364718</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>89.26715789495802</v>
-      </c>
+        <v>46.39082375956531</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.54276443002392</v>
-      </c>
+        <v>89.26715789495802</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-56.69915229511177</v>
-      </c>
+        <v>6.54276443002392</v>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-57.66859289058857</v>
-      </c>
+        <v>-56.69915229511177</v>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-57.80616523838773</v>
-      </c>
+        <v>-57.66859289058857</v>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-58.06163181314989</v>
-      </c>
+        <v>-57.80616523838773</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-57.69391943593948</v>
-      </c>
+        <v>-58.06163181314989</v>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-57.61822954008874</v>
-      </c>
+        <v>-57.69391943593948</v>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-57.75601874684836</v>
-      </c>
+        <v>-57.61822954008874</v>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-57.78974348709161</v>
-      </c>
+        <v>-57.75601874684836</v>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-57.87727678822074</v>
-      </c>
+        <v>-57.78974348709161</v>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-57.8529845447443</v>
-      </c>
+        <v>-57.87727678822074</v>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-57.38596619846498</v>
-      </c>
+        <v>-57.8529845447443</v>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-57.57485936971506</v>
-      </c>
+        <v>-57.38596619846498</v>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-57.5557628231714</v>
-      </c>
+        <v>-57.57485936971506</v>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-57.58879023581002</v>
-      </c>
+        <v>-57.5557628231714</v>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-57.34126245256504</v>
-      </c>
+        <v>-57.58879023581002</v>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-57.33867276822941</v>
-      </c>
+        <v>-57.34126245256504</v>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-56.52161680416075</v>
-      </c>
+        <v>-57.33867276822941</v>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-56.40774877773374</v>
-      </c>
+        <v>-56.52161680416075</v>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-56.7909185206037</v>
-      </c>
+        <v>-56.40774877773374</v>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-56.62865581654329</v>
-      </c>
+        <v>-56.7909185206037</v>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-56.0312797707096</v>
-      </c>
+        <v>-56.62865581654329</v>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-55.86781459965903</v>
-      </c>
+        <v>-56.0312797707096</v>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-56.42139877016803</v>
-      </c>
+        <v>-55.86781459965903</v>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-56.14219006902283</v>
-      </c>
+        <v>-56.42139877016803</v>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-55.86590676265357</v>
-      </c>
+        <v>-56.14219006902283</v>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-55.82276731391688</v>
-      </c>
+        <v>-55.86590676265357</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-55.6158496860466</v>
-      </c>
+        <v>-55.82276731391688</v>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-55.70368978988444</v>
-      </c>
+        <v>-55.6158496860466</v>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-55.96195734834514</v>
-      </c>
+        <v>-55.70368978988444</v>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-55.65848762182209</v>
-      </c>
+        <v>-55.96195734834514</v>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-54.70806634656788</v>
-      </c>
+        <v>-55.65848762182209</v>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-54.85054665314263</v>
-      </c>
+        <v>-54.70806634656788</v>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-55.52643584663591</v>
-      </c>
+        <v>-54.85054665314263</v>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-55.63307880664083</v>
-      </c>
+        <v>-55.52643584663591</v>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-55.3877467674272</v>
-      </c>
+        <v>-55.63307880664083</v>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-55.4311590798093</v>
-      </c>
+        <v>-55.3877467674272</v>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-55.35383252405811</v>
-      </c>
+        <v>-55.4311590798093</v>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-55.40591472340186</v>
-      </c>
+        <v>-55.35383252405811</v>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-55.55270389019905</v>
-      </c>
+        <v>-55.40591472340186</v>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-55.61360938906481</v>
-      </c>
+        <v>-55.55270389019905</v>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-55.98422300683256</v>
-      </c>
+        <v>-55.61360938906481</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-55.90943029329156</v>
-      </c>
+        <v>-55.98422300683256</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-54.79633424418657</v>
-      </c>
+        <v>-55.90943029329156</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-54.77316181654571</v>
-      </c>
+        <v>-54.79633424418657</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>-54.77316181654571</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
         <v>-55.10214668493082</v>
       </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B137"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>stride_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-25.8757621665614</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-24.52491201322811</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-24.59273562355366</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-23.97307537227476</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-23.93138633407435</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-22.9540387032713</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-22.88474823417835</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-21.44768122809133</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-21.36016590250693</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-19.63756141769657</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-19.60707861063569</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-18.51340504093529</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-18.46372121301476</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-17.80493827446974</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-17.77058011857696</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-16.81305711126901</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>-16.87387437791218</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>-16.04549557359086</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>-16.00387547742483</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>-14.66915007357537</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-14.57640282166</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>-13.86139692799535</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>-13.77572105221908</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>-11.86606131758553</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>-11.81118921466676</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>-9.786546417906383</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>-9.75531254342885</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>-7.559918046734913</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>-7.518507786792389</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>-5.340435716072881</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>-5.380294984796865</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>-3.24181511183384</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>-3.217365881229865</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>-0.9176703039364688</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.6317658096862663</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1.560154934024527</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1.575358032153659</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>3.666832435359916</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>3.706957591934</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>6.226082983724099</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>6.214397300928248</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>8.599798496094627</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>8.677276375295452</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>11.64053879305355</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>11.76287390323596</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>15.36092504690439</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>15.39188021425728</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>18.4510659589384</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>18.55049135306561</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>20.5483003438614</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>20.63855459035588</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>23.69386169912868</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>23.71896938764086</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>25.71177810232272</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>25.70343235927716</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>28.38218126807066</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>28.28011245161927</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>30.71662787064217</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>30.75623201131043</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>33.52329503513057</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>33.59274482835793</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>35.98509329618259</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>35.93162451005983</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>37.23180330196414</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>37.24030191552705</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>38.6535292704209</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>38.72114354316435</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>39.4185360220449</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>39.39362271190658</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>40.01855859040167</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>40.04890183756968</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>40.72863007398189</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>40.74399512385196</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>41.65140079846142</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>41.68699851614123</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>42.39977702148175</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>42.40875471507417</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>43.2277930314937</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>43.50966242909778</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>44.14625835778714</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>44.18863858588895</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>45.65881630739153</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>45.63826008019111</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>46.45770881337368</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>46.56522804902609</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>48.37567727536916</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>48.41334697571813</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>49.50051425661464</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>49.53115556494159</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>51.02298752500329</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>51.00722271191732</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>52.42321197103872</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>52.4896590202863</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>52.86372023805982</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>52.98424049733143</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>53.22685952090197</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>53.24501466252681</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>53.40830234349779</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>53.36923985403544</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>53.11636457246785</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>53.11354737434139</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>52.96017758017029</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>53.04408079637165</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>53.22835999364221</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>53.24134369386714</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>53.2433874678287</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>53.26796500709157</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>53.31086745931042</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>53.31117623341393</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>53.56255225572711</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>53.58032994574439</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>53.97238959595963</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>53.99445703883002</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>54.5597048853821</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>54.59423712090791</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>54.97581476045377</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>54.94968311502797</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>54.98600445080546</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>55.06685943618307</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>55.16284853168933</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>55.10835649211217</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>54.8340758533563</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>54.89823520128026</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>55.12295039201467</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>55.21663841361429</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>55.21852517911434</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>55.24782267000249</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>55.4564071624772</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>55.4468186190015</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>55.6588050808599</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>55.69202814596322</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>56.14857669146597</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>56.10293439571246</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>55.61624432725383</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>55.55258977265123</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>55.61609180933713</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2676,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>63.71992221226766</v>
+        <v>63.48521237161164</v>
       </c>
     </row>
     <row r="3">
@@ -2684,7 +2374,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>63.50948475246359</v>
+        <v>63.09021835410157</v>
       </c>
     </row>
     <row r="4">
@@ -2692,7 +2382,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>63.92034402481193</v>
+        <v>63.52584676007577</v>
       </c>
     </row>
     <row r="5">
@@ -2700,7 +2390,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65.13506824408016</v>
+        <v>65.5028730651651</v>
       </c>
     </row>
     <row r="6">
@@ -2708,7 +2398,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67.31455522626997</v>
+        <v>67.17160261722313</v>
       </c>
     </row>
     <row r="7">
@@ -2716,7 +2406,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67.71320276727873</v>
+        <v>67.72525103103176</v>
       </c>
     </row>
     <row r="8">
@@ -2724,7 +2414,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>72.88459254203491</v>
+        <v>72.09071169699143</v>
       </c>
     </row>
     <row r="9">
@@ -2732,7 +2422,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>72.78271082028418</v>
+        <v>72.86153053830878</v>
       </c>
     </row>
     <row r="10">
@@ -2740,7 +2430,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>73.24142644090689</v>
+        <v>73.17618710188511</v>
       </c>
     </row>
     <row r="11">
@@ -2748,7 +2438,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>73.86672954931166</v>
+        <v>72.50402573273811</v>
       </c>
     </row>
     <row r="12">
@@ -2756,7 +2446,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>74.67957476920033</v>
+        <v>74.17451939110214</v>
       </c>
     </row>
     <row r="13">
@@ -2780,7 +2470,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>57.24967428170226</v>
+        <v>74.89374475429099</v>
       </c>
     </row>
     <row r="16">
@@ -2788,7 +2478,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>51.54110802705432</v>
+        <v>57.25014223751397</v>
       </c>
     </row>
     <row r="17">
@@ -2796,7 +2486,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27.31786092057565</v>
+        <v>55.53334182159875</v>
       </c>
     </row>
     <row r="18">
@@ -2804,7 +2494,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>55.23003459797545</v>
+        <v>75.0996038380637</v>
       </c>
     </row>
     <row r="19">
@@ -2812,7 +2502,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>37.77549157022377</v>
+        <v>53.68793343863271</v>
       </c>
     </row>
     <row r="20">
@@ -2820,7 +2510,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>18.24884422486186</v>
+        <v>38.01436521137595</v>
       </c>
     </row>
     <row r="21">
@@ -2828,7 +2518,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-9.268394500165996</v>
+        <v>17.36081782670428</v>
       </c>
     </row>
     <row r="22">
@@ -2836,7 +2526,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-10.26803106047845</v>
+        <v>-7.949034278946018</v>
       </c>
     </row>
     <row r="23">
@@ -2844,7 +2534,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-26.4690935142944</v>
+        <v>-11.10466687813686</v>
       </c>
     </row>
     <row r="24">
@@ -2852,7 +2542,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-34.27970035976115</v>
+        <v>-26.93783378588587</v>
       </c>
     </row>
     <row r="25">
@@ -2860,7 +2550,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-38.45298803049412</v>
+        <v>-33.64016788306201</v>
       </c>
     </row>
     <row r="26">
@@ -2868,7 +2558,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-39.50675398913542</v>
+        <v>-37.86749624527999</v>
       </c>
     </row>
     <row r="27">
@@ -2876,7 +2566,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-42.27712683898972</v>
+        <v>-39.65967798457953</v>
       </c>
     </row>
     <row r="28">
@@ -2884,7 +2574,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-43.66562416567193</v>
+        <v>-42.08822143985558</v>
       </c>
     </row>
     <row r="29">
@@ -2892,7 +2582,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-44.20871306452668</v>
+        <v>-41.0460405807372</v>
       </c>
     </row>
     <row r="30">
@@ -2900,7 +2590,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>89.98566122447795</v>
+        <v>-43.12908534039536</v>
       </c>
     </row>
     <row r="31">
@@ -2908,7 +2598,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>89.85238805780129</v>
+        <v>89.9811068480296</v>
       </c>
     </row>
     <row r="32">
@@ -2916,7 +2606,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-46.03226602984804</v>
+        <v>89.8442344589718</v>
       </c>
     </row>
     <row r="33">
@@ -2980,7 +2670,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>81.34921403685168</v>
+        <v>81.28002844890128</v>
       </c>
     </row>
     <row r="41">
@@ -2988,7 +2678,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>81.44915666994716</v>
+        <v>81.34810612658262</v>
       </c>
     </row>
     <row r="42">
@@ -2996,7 +2686,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>81.33976537866573</v>
+        <v>81.478142020319</v>
       </c>
     </row>
     <row r="43">
@@ -3004,7 +2694,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>81.38451218668347</v>
+        <v>81.2404227247557</v>
       </c>
     </row>
     <row r="44">
@@ -3012,7 +2702,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>88.56776429825956</v>
+        <v>88.54712578920466</v>
       </c>
     </row>
     <row r="45">
@@ -3020,7 +2710,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>46.39082375956531</v>
+        <v>46.16764633364718</v>
       </c>
     </row>
     <row r="46">
@@ -3028,7 +2718,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.54276443002392</v>
+        <v>89.26715789495802</v>
       </c>
     </row>
     <row r="47">
@@ -3036,7 +2726,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-57.66859289058857</v>
+        <v>-56.69915229511177</v>
       </c>
     </row>
     <row r="48">
@@ -3044,7 +2734,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-58.06163181314989</v>
+        <v>-57.80616523838773</v>
       </c>
     </row>
     <row r="49">
@@ -3052,7 +2742,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-57.61822954008874</v>
+        <v>-57.69391943593948</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +2750,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-57.78974348709161</v>
+        <v>-57.75601874684836</v>
       </c>
     </row>
     <row r="51">
@@ -3068,7 +2758,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-57.8529845447443</v>
+        <v>-57.87727678822074</v>
       </c>
     </row>
     <row r="52">
@@ -3076,7 +2766,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-57.57485936971506</v>
+        <v>-57.38596619846498</v>
       </c>
     </row>
     <row r="53">
@@ -3180,7 +2870,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-55.55270389019905</v>
+        <v>-55.40591472340186</v>
       </c>
     </row>
     <row r="66">
@@ -3188,7 +2878,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-55.98422300683256</v>
+        <v>-55.61360938906481</v>
       </c>
     </row>
     <row r="67">
@@ -3196,7 +2886,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-54.79633424418657</v>
+        <v>-55.90943029329156</v>
       </c>
     </row>
     <row r="68">
@@ -3204,7 +2894,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-55.10214668493082</v>
+        <v>-54.77316181654571</v>
       </c>
     </row>
     <row r="69">
@@ -3212,7 +2902,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-54.54883749143722</v>
+        <v>-54.9476618638941</v>
       </c>
     </row>
     <row r="70">
@@ -3220,7 +2910,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-53.2057362863578</v>
+        <v>-54.51679703430155</v>
       </c>
     </row>
     <row r="71">
@@ -3228,7 +2918,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-53.10264125131902</v>
+        <v>-53.34875050328397</v>
       </c>
     </row>
     <row r="72">
@@ -3380,7 +3070,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>59.51229893755404</v>
+        <v>59.50148705910766</v>
       </c>
     </row>
     <row r="91">
@@ -3388,7 +3078,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>60.93319813070153</v>
+        <v>60.8220837094323</v>
       </c>
     </row>
     <row r="92">
@@ -3396,7 +3086,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>65.33743731828739</v>
+        <v>65.28777238705977</v>
       </c>
     </row>
     <row r="93">
@@ -3484,7 +3174,1561 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E138"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_AB_midpoint</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-26.02745928754701</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-26.02745928754701</v>
+      </c>
+      <c r="D2" t="n">
+        <v>55.61609180933713</v>
+      </c>
+      <c r="E2" t="n">
+        <v>39.39362271190658</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-25.8757621665614</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-24.52491201322811</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-24.59273562355366</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-23.97307537227476</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-23.93138633407435</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-22.9540387032713</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-22.88474823417835</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-21.44768122809133</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-21.36016590250693</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-19.63756141769657</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-19.60707861063569</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-18.51340504093529</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-18.46372121301476</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-17.80493827446974</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-17.77058011857696</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-16.81305711126901</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-16.87387437791218</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-16.04549557359086</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-16.00387547742483</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-14.66915007357537</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-14.57640282166</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-13.86139692799535</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-13.77572105221908</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-11.86606131758553</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-11.81118921466676</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-9.786546417906383</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-9.75531254342885</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-7.559918046734913</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-7.518507786792389</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-5.340435716072881</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-5.380294984796865</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-3.24181511183384</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-3.217365881229865</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.9176703039364688</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.6317658096862663</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.560154934024527</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.575358032153659</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3.666832435359916</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3.706957591934</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6.226082983724099</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6.214397300928248</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>8.599798496094627</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>8.677276375295452</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>11.64053879305355</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>11.76287390323596</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>15.36092504690439</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>15.39188021425728</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>18.4510659589384</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>18.55049135306561</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>20.5483003438614</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>20.63855459035588</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>23.69386169912868</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>23.71896938764086</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>25.71177810232272</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>25.70343235927716</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>28.38218126807066</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>28.28011245161927</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>30.71662787064217</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>30.75623201131043</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>33.52329503513057</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>33.59274482835793</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>35.98509329618259</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>35.93162451005983</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>37.23180330196414</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>37.24030191552705</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>38.6535292704209</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>38.72114354316435</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>39.4185360220449</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>39.39362271190658</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>40.01855859040167</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>40.04890183756968</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>40.72863007398189</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>40.74399512385196</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>41.65140079846142</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>41.68699851614123</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>42.39977702148175</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>42.40875471507417</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>43.2277930314937</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>43.50966242909778</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>44.14625835778714</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>44.18863858588895</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>45.65881630739153</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>45.63826008019111</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>46.45770881337368</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>46.56522804902609</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>48.37567727536916</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>48.41334697571813</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>49.50051425661464</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>49.53115556494159</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>51.02298752500329</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>51.00722271191732</v>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>52.42321197103872</v>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>52.4896590202863</v>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>52.86372023805982</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>52.98424049733143</v>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>53.22685952090197</v>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>53.24501466252681</v>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>53.40830234349779</v>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>53.36923985403544</v>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>53.11636457246785</v>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>53.11354737434139</v>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>52.96017758017029</v>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>53.04408079637165</v>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>53.22835999364221</v>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>53.24134369386714</v>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>53.2433874678287</v>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>53.26796500709157</v>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>53.31086745931042</v>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>53.31117623341393</v>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>53.56255225572711</v>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>53.58032994574439</v>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>53.97238959595963</v>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>53.99445703883002</v>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>54.5597048853821</v>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>54.59423712090791</v>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>54.97581476045377</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>54.94968311502797</v>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>54.98600445080546</v>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>55.06685943618307</v>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>55.16284853168933</v>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>55.10835649211217</v>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>54.8340758533563</v>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>54.89823520128026</v>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>55.12295039201467</v>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>55.21663841361429</v>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>55.21852517911434</v>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>55.24782267000249</v>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>55.4564071624772</v>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>55.4468186190015</v>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>55.6588050808599</v>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>55.69202814596322</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>56.14857669146597</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>56.10293439571246</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>55.61624432725383</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>55.55258977265123</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>55.61609180933713</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3510,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-25.8757621665614</v>
+        <v>-26.02745928754701</v>
       </c>
     </row>
     <row r="3">
@@ -3518,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-24.59273562355366</v>
+        <v>-24.52491201322811</v>
       </c>
     </row>
     <row r="4">
@@ -3526,7 +4770,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-23.93138633407435</v>
+        <v>-23.97307537227476</v>
       </c>
     </row>
     <row r="5">
@@ -3534,7 +4778,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-22.88474823417835</v>
+        <v>-22.9540387032713</v>
       </c>
     </row>
     <row r="6">
@@ -3542,7 +4786,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-21.36016590250693</v>
+        <v>-21.44768122809133</v>
       </c>
     </row>
     <row r="7">
@@ -3550,7 +4794,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-19.60707861063569</v>
+        <v>-19.63756141769657</v>
       </c>
     </row>
     <row r="8">
@@ -3558,7 +4802,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-18.46372121301476</v>
+        <v>-18.51340504093529</v>
       </c>
     </row>
     <row r="9">
@@ -3566,7 +4810,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-17.77058011857696</v>
+        <v>-17.80493827446974</v>
       </c>
     </row>
     <row r="10">
@@ -3574,7 +4818,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-16.87387437791218</v>
+        <v>-16.81305711126901</v>
       </c>
     </row>
     <row r="11">
@@ -3582,7 +4826,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-16.00387547742483</v>
+        <v>-16.04549557359086</v>
       </c>
     </row>
     <row r="12">
@@ -3590,7 +4834,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-14.57640282166</v>
+        <v>-14.66915007357537</v>
       </c>
     </row>
     <row r="13">
@@ -3614,7 +4858,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-7.559918046734913</v>
+        <v>-9.75531254342885</v>
       </c>
     </row>
     <row r="16">
@@ -3622,7 +4866,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-5.340435716072881</v>
+        <v>-7.518507786792389</v>
       </c>
     </row>
     <row r="17">
@@ -3630,7 +4874,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.24181511183384</v>
+        <v>-5.380294984796865</v>
       </c>
     </row>
     <row r="18">
@@ -3638,7 +4882,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.9176703039364688</v>
+        <v>-3.217365881229865</v>
       </c>
     </row>
     <row r="19">
@@ -3646,7 +4890,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.560154934024527</v>
+        <v>-0.6317658096862663</v>
       </c>
     </row>
     <row r="20">
@@ -3654,7 +4898,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.666832435359916</v>
+        <v>1.575358032153659</v>
       </c>
     </row>
     <row r="21">
@@ -3662,7 +4906,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.226082983724099</v>
+        <v>3.706957591934</v>
       </c>
     </row>
     <row r="22">
@@ -3670,7 +4914,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8.599798496094627</v>
+        <v>6.214397300928248</v>
       </c>
     </row>
     <row r="23">
@@ -3678,7 +4922,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.64053879305355</v>
+        <v>8.677276375295452</v>
       </c>
     </row>
     <row r="24">
@@ -3686,7 +4930,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15.36092504690439</v>
+        <v>11.76287390323596</v>
       </c>
     </row>
     <row r="25">
@@ -3694,7 +4938,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>18.4510659589384</v>
+        <v>15.39188021425728</v>
       </c>
     </row>
     <row r="26">
@@ -3702,7 +4946,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20.5483003438614</v>
+        <v>18.55049135306561</v>
       </c>
     </row>
     <row r="27">
@@ -3710,7 +4954,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>23.69386169912868</v>
+        <v>20.63855459035588</v>
       </c>
     </row>
     <row r="28">
@@ -3718,7 +4962,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25.71177810232272</v>
+        <v>23.71896938764086</v>
       </c>
     </row>
     <row r="29">
@@ -3726,7 +4970,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>28.38218126807066</v>
+        <v>25.70343235927716</v>
       </c>
     </row>
     <row r="30">
@@ -3734,7 +4978,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>30.71662787064217</v>
+        <v>28.28011245161927</v>
       </c>
     </row>
     <row r="31">
@@ -3742,7 +4986,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>33.52329503513057</v>
+        <v>30.75623201131043</v>
       </c>
     </row>
     <row r="32">
@@ -3750,7 +4994,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>35.98509329618259</v>
+        <v>33.59274482835793</v>
       </c>
     </row>
     <row r="33">
@@ -3814,7 +5058,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>43.50966242909778</v>
+        <v>43.2277930314937</v>
       </c>
     </row>
     <row r="41">
@@ -3822,7 +5066,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>44.18863858588895</v>
+        <v>44.14625835778714</v>
       </c>
     </row>
     <row r="42">
@@ -3830,7 +5074,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>45.63826008019111</v>
+        <v>45.65881630739153</v>
       </c>
     </row>
     <row r="43">
@@ -3838,7 +5082,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>46.56522804902609</v>
+        <v>46.45770881337368</v>
       </c>
     </row>
     <row r="44">
@@ -3846,7 +5090,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>48.41334697571813</v>
+        <v>48.37567727536916</v>
       </c>
     </row>
     <row r="45">
@@ -3854,7 +5098,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>49.53115556494159</v>
+        <v>49.50051425661464</v>
       </c>
     </row>
     <row r="46">
@@ -3862,7 +5106,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>51.00722271191732</v>
+        <v>51.02298752500329</v>
       </c>
     </row>
     <row r="47">
@@ -3870,7 +5114,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>52.4896590202863</v>
+        <v>52.42321197103872</v>
       </c>
     </row>
     <row r="48">
@@ -3878,7 +5122,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>52.98424049733143</v>
+        <v>52.86372023805982</v>
       </c>
     </row>
     <row r="49">
@@ -3886,7 +5130,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>53.24501466252681</v>
+        <v>53.22685952090197</v>
       </c>
     </row>
     <row r="50">
@@ -3894,7 +5138,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>53.36923985403544</v>
+        <v>53.40830234349779</v>
       </c>
     </row>
     <row r="51">
@@ -3902,7 +5146,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>53.11354737434139</v>
+        <v>53.11636457246785</v>
       </c>
     </row>
     <row r="52">
@@ -3910,7 +5154,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>53.04408079637165</v>
+        <v>52.96017758017029</v>
       </c>
     </row>
     <row r="53">
@@ -4014,7 +5258,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>55.6588050808599</v>
+        <v>55.4468186190015</v>
       </c>
     </row>
     <row r="66">
@@ -4022,7 +5266,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>56.14857669146597</v>
+        <v>55.69202814596322</v>
       </c>
     </row>
     <row r="67">
@@ -4030,7 +5274,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>55.61624432725383</v>
+        <v>56.10293439571246</v>
       </c>
     </row>
     <row r="68">
@@ -4038,7 +5282,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>55.61609180933713</v>
+        <v>55.55258977265123</v>
       </c>
     </row>
     <row r="69">
@@ -4046,7 +5290,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>55.70073590731413</v>
+        <v>55.70096583688262</v>
       </c>
     </row>
     <row r="70">
@@ -4054,7 +5298,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>55.57060421691097</v>
+        <v>55.65610050144539</v>
       </c>
     </row>
     <row r="71">
@@ -4062,7 +5306,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>55.52522277853013</v>
+        <v>55.62308727513526</v>
       </c>
     </row>
     <row r="72">
@@ -4214,7 +5458,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-45.4373154439192</v>
+        <v>-45.45262517676535</v>
       </c>
     </row>
     <row r="91">
@@ -4222,7 +5466,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-52.5423169381337</v>
+        <v>-52.57523427081338</v>
       </c>
     </row>
     <row r="92">
@@ -4230,7 +5474,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-54.9556170260271</v>
+        <v>-54.98345267265752</v>
       </c>
     </row>
     <row r="93">
